--- a/bots/crawl_ch/output/bread_coop_2023-01-03.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O400"/>
+  <dimension ref="A1:O401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2776,13 +2776,13 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Baguettes 1.00 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Baguettes - Online kein Bestand 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15586,7 +15586,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17353,7 +17353,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18402,7 +18402,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18686,7 +18686,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19110,7 +19110,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19252,7 +19252,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19321,7 +19321,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19390,7 +19390,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19459,7 +19459,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19528,7 +19528,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20094,7 +20094,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20167,7 +20167,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20303,7 +20303,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20583,7 +20583,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20729,7 +20729,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20871,7 +20871,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -20944,7 +20944,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22007,7 +22007,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22636,7 +22636,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25708,7 +25708,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25777,7 +25777,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25844,7 +25844,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25917,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26272,7 +26272,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26418,7 +26418,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26629,7 +26629,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26702,7 +26702,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26838,7 +26838,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27051,7 +27051,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27118,7 +27118,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27191,7 +27191,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27264,7 +27264,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27333,7 +27333,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27406,7 +27406,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27542,7 +27542,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27615,7 +27615,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27688,7 +27688,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27828,7 +27828,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27897,7 +27897,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28106,7 +28106,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28175,7 +28175,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28244,7 +28244,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28311,7 +28311,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28447,7 +28447,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
@@ -28650,43 +28650,45 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6798608</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 4x60g</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28696,7 +28698,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28706,18 +28708,85 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-03 06:49:51</t>
+          <t>2023-01-03 12:56:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>6798608</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Naturaplan Bio Birnweggen 4x60g</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>1.19/100g</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>2023-01-03 12:56:48</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2023-01-03.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O401"/>
+  <dimension ref="A1:O400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E82" t="n">
         <v>4.5</v>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151" t="n">
         <v>4.5</v>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14394,7 +14394,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E197" t="n">
         <v>3.5</v>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15586,7 +15586,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17353,7 +17353,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18402,7 +18402,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18686,7 +18686,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19110,7 +19110,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19252,7 +19252,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19321,7 +19321,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19390,7 +19390,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19459,7 +19459,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19528,7 +19528,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20094,7 +20094,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20167,7 +20167,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20303,7 +20303,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20583,7 +20583,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20729,7 +20729,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20871,7 +20871,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20944,7 +20944,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22007,7 +22007,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22636,7 +22636,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24393,31 +24393,31 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E339" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -24426,12 +24426,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24451,56 +24451,56 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E340" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24510,7 +24510,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24520,56 +24520,60 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24579,7 +24583,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24589,55 +24593,51 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D342" t="n">
         <v>2</v>
       </c>
       <c r="E342" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -24662,56 +24662,56 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24731,56 +24731,56 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24790,7 +24790,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24805,51 +24805,51 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E345" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24859,7 +24859,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24869,56 +24869,54 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
-        </is>
-      </c>
-      <c r="D346" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="E346" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24928,7 +24926,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24938,35 +24936,35 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
         </is>
       </c>
       <c r="D347" t="inlineStr"/>
@@ -25010,49 +25008,51 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25062,7 +25062,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25072,56 +25072,56 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E349" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25141,56 +25141,60 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N349" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6798601</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Naturaplan Bio Haselnussrollen 4x60g</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-4x60g/p/6798601</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E350" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.27/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25200,7 +25204,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25210,60 +25214,56 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Haselnussrollen 4x60g 25% Aktion 3.05 Schweizer Franken statt 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6798601</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 4x60g</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-4x60g/p/6798601</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>1.27/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25283,56 +25283,56 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 4x60g 25% Aktion 3.05 Schweizer Franken statt 4.10 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E352" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25342,7 +25342,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25352,56 +25352,56 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E353" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25411,7 +25411,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25421,35 +25421,35 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -25460,17 +25460,17 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25480,7 +25480,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25490,56 +25490,56 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E355" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25549,7 +25549,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25559,42 +25559,42 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E356" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -25603,12 +25603,12 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25618,7 +25618,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25633,51 +25633,51 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E357" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25697,56 +25697,54 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
-        </is>
-      </c>
-      <c r="D358" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
       <c r="E358" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25756,7 +25754,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25766,54 +25764,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 2+1 Aktion 3.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>6</v>
+      </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25833,56 +25833,60 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25892,7 +25896,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25907,55 +25911,55 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E361" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25965,7 +25969,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25980,7 +25984,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -25990,45 +25994,43 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
-        </is>
-      </c>
-      <c r="D362" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26038,7 +26040,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26048,58 +26050,60 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>3</v>
+      </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26109,7 +26113,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26119,60 +26123,56 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26182,7 +26182,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26192,56 +26192,56 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 2+1 Aktion 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26261,56 +26261,60 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 2+1 Aktion 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E366" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26320,7 +26324,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26330,60 +26334,60 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E367" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26393,7 +26397,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26403,60 +26407,56 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26466,7 +26466,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26476,35 +26476,35 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -26515,17 +26515,17 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26535,7 +26535,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26545,56 +26545,60 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr"/>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E370" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26604,7 +26608,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26614,12 +26618,12 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -26629,45 +26633,45 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E371" t="n">
         <v>4.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26677,7 +26681,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26687,60 +26691,54 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
-        </is>
-      </c>
-      <c r="D372" t="n">
-        <v>82</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
       <c r="E372" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26750,7 +26748,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26760,35 +26758,35 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 1.95 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
         </is>
       </c>
       <c r="D373" t="inlineStr"/>
@@ -26797,17 +26795,17 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26817,7 +26815,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26827,54 +26825,60 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr"/>
+          <t>Dar-Vida Nature 2+1 Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>2</v>
+      </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26884,7 +26888,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26894,60 +26898,60 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 2+1 Aktion 1.00 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26957,7 +26961,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26967,60 +26971,54 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D376" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="E376" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27030,7 +27028,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27040,54 +27038,56 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27097,7 +27097,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27107,56 +27107,60 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D378" t="n">
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27166,7 +27170,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27176,60 +27180,60 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>3585078</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Naturaplan Bio Drei Königskuchen</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-drei-koenigskuchen/p/3585078</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E379" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27239,7 +27243,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27249,60 +27253,56 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N379" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Drei Königskuchen 5.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>3585078</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Drei Königskuchen</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-drei-koenigskuchen/p/3585078</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27312,7 +27312,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27322,56 +27322,60 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Drei Königskuchen 5.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E381" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27381,7 +27385,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27391,60 +27395,54 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>3040977</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Dahli Marzipanstollen</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
-        </is>
-      </c>
-      <c r="D382" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
       <c r="E382" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Dahli</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27454,7 +27452,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27464,54 +27462,56 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+          <t>Dahli Marzipanstollen - Online kein Bestand 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>3040977</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>26</v>
+      </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Dahli</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27521,7 +27521,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27531,42 +27531,46 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen - Online kein Bestand 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E384" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -27580,7 +27584,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27590,7 +27594,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27600,60 +27604,58 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
-        </is>
-      </c>
-      <c r="D385" t="n">
-        <v>40</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
       <c r="E385" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27663,7 +27665,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27673,58 +27675,60 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>6022117</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-dreikoenigskuchen-ohne-sultaninen/p/6022117</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>3</v>
+      </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27734,7 +27738,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27744,60 +27748,56 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen 5.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6022117</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-dreikoenigskuchen-ohne-sultaninen/p/6022117</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27807,7 +27807,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27817,56 +27817,56 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Dreikönigskuchen ohne Sultaninen 5.10 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27876,7 +27876,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27886,68 +27886,66 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
       <c r="E389" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>4.80/100g</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>3.20/100g</t>
-        </is>
-      </c>
-      <c r="I389" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>100g</t>
@@ -27955,54 +27953,56 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>34</v>
+      </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28012,7 +28012,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28022,56 +28022,60 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N390" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E391" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28081,7 +28085,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28091,60 +28095,56 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N391" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28154,7 +28154,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28164,56 +28164,54 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
-        </is>
-      </c>
-      <c r="D393" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
       <c r="E393" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28223,7 +28221,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28233,35 +28231,35 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
         </is>
       </c>
       <c r="D394" t="inlineStr"/>
@@ -28270,17 +28268,17 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28290,7 +28288,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28300,54 +28298,56 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>3</v>
+      </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28357,7 +28357,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28367,51 +28367,49 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D396" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
       <c r="E396" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -28436,54 +28434,56 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>8</v>
+      </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28493,7 +28493,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -28503,56 +28503,54 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>3041968</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Aprikosentorte</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
-        </is>
-      </c>
-      <c r="D398" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
       <c r="E398" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>0.74/100g</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -28562,7 +28560,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -28577,49 +28575,51 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Aprikosentorte 20% Aktion 3.35 Schweizer Franken statt 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>3041968</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Aprikosentorte</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -28629,7 +28629,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -28639,56 +28639,54 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Aprikosentorte 20% Aktion 3.35 Schweizer Franken statt 4.20 Schweizer Franken</t>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>6798608</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Naturaplan Bio Birnweggen 4x60g</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
-        </is>
-      </c>
-      <c r="D400" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
       <c r="E400" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28698,7 +28696,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28708,85 +28706,18 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-03 12:56:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>6798608</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Birnweggen 4x60g</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="n">
-        <v>0</v>
-      </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>1.19/100g</t>
-        </is>
-      </c>
-      <c r="I401" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J401" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
-        </is>
-      </c>
-      <c r="M401" t="inlineStr">
-        <is>
-          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N401" t="inlineStr"/>
-      <c r="O401" t="inlineStr">
-        <is>
-          <t>2023-01-03 12:56:48</t>
+          <t>2023-01-03 20:49:25</t>
         </is>
       </c>
     </row>
